--- a/doc/组织过程资产/品牌列表.xlsx
+++ b/doc/组织过程资产/品牌列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>RONGHE</t>
-  </si>
-  <si>
-    <t>融合</t>
   </si>
   <si>
     <t>DELL</t>
@@ -568,6 +565,150 @@
   <si>
     <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融和</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>西门子</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>科密</t>
+  </si>
+  <si>
+    <t>银佳</t>
+  </si>
+  <si>
+    <t>金图</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>金典</t>
+  </si>
+  <si>
+    <t>光荣</t>
+  </si>
+  <si>
+    <t>TP-LINK</t>
+  </si>
+  <si>
+    <t>普联</t>
+  </si>
+  <si>
+    <t>DLINK</t>
+  </si>
+  <si>
+    <t>友联</t>
+  </si>
+  <si>
+    <t>HUAWEI</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>H3C</t>
+  </si>
+  <si>
+    <t>CISCO</t>
+  </si>
+  <si>
+    <t>思科</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>中兴</t>
+  </si>
+  <si>
+    <t>ViewSonic</t>
+  </si>
+  <si>
+    <t>优派</t>
+  </si>
+  <si>
+    <t>AOC</t>
+  </si>
+  <si>
+    <t>冠捷</t>
+  </si>
+  <si>
+    <t>BenQ</t>
+  </si>
+  <si>
+    <t>明基</t>
+  </si>
+  <si>
+    <t>亚美</t>
+  </si>
+  <si>
+    <t>ANNE</t>
+  </si>
+  <si>
+    <t>安妮</t>
+  </si>
+  <si>
+    <t>CASIO</t>
+  </si>
+  <si>
+    <t>卡西欧</t>
+  </si>
+  <si>
+    <t>GuangBo</t>
+  </si>
+  <si>
+    <t>广博</t>
+  </si>
+  <si>
+    <t>王麻子</t>
+  </si>
+  <si>
+    <t>新文化</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>西部数据</t>
+  </si>
+  <si>
+    <t>Seagate</t>
+  </si>
+  <si>
+    <t>希捷</t>
+  </si>
+  <si>
+    <t>ELECTTE</t>
+  </si>
+  <si>
+    <t>依勤</t>
+  </si>
+  <si>
+    <t>龙安</t>
+  </si>
+  <si>
+    <t>Gigaset</t>
+  </si>
+  <si>
+    <t>集怡嘉</t>
+  </si>
+  <si>
+    <t>BBK</t>
+  </si>
+  <si>
+    <t>步步高</t>
   </si>
 </sst>
 </file>
@@ -961,11 +1102,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -980,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1679,7 +1818,7 @@
         <v>116</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1687,10 +1826,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1698,10 +1837,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -1709,7 +1848,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="5"/>
     </row>
@@ -1718,10 +1857,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -1729,10 +1868,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -1740,10 +1879,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -1751,10 +1890,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -1762,10 +1901,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -1773,10 +1912,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -1784,10 +1923,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -1795,10 +1934,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -1806,10 +1945,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -1817,10 +1956,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -1828,10 +1967,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -1839,10 +1978,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -1851,7 +1990,7 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -1860,7 +1999,7 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -1869,7 +2008,7 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -1877,10 +2016,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -1888,10 +2027,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -1899,10 +2038,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -1910,10 +2049,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -1921,10 +2060,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -1933,7 +2072,7 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -1942,7 +2081,7 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -1950,10 +2089,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -1961,10 +2100,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -1972,10 +2111,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -1983,10 +2122,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -1994,10 +2133,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -2005,10 +2144,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -2016,10 +2155,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -2027,10 +2166,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -2038,10 +2177,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -2049,10 +2188,302 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>181</v>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/doc/组织过程资产/品牌列表.xlsx
+++ b/doc/组织过程资产/品牌列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
   <si>
     <t>id</t>
   </si>
@@ -709,13 +709,17 @@
   </si>
   <si>
     <t>步步高</t>
+  </si>
+  <si>
+    <t>文正</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +739,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -782,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +819,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1102,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2486,6 +2505,15 @@
         <v>230</v>
       </c>
     </row>
+    <row r="131" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
